--- a/src/assets/images/Product.xlsx
+++ b/src/assets/images/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adima\Documents\LTI\Project Gladiaor\OnlineShopping\src\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208F063-539A-4275-842F-FBF62A87A050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D59892-474F-4061-B473-FACF4289100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1470" windowWidth="20475" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Product_Id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Rubik's Cube</t>
-  </si>
-  <si>
     <t>Apple Mobile</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>AirPods</t>
   </si>
   <si>
-    <t>Josh</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>The Rubik's Cube is a 3-D combination puzzle invented in 1974 by Hungarian sculpto</t>
-  </si>
-  <si>
     <t>New Apple iPhone 12 Pro (128GB) - Pacific Blue</t>
   </si>
   <si>
@@ -106,6 +97,72 @@
   </si>
   <si>
     <t>Apple airpods with charging case</t>
+  </si>
+  <si>
+    <t>Asus Tuf A17</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Asus Premium Gaming Laptop GTX-1650ti 8GB RAM</t>
+  </si>
+  <si>
+    <t>/assets/images/charger.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/iphone.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/asusA17.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/nike.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/jeans.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/airpods.jpg</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Logitech</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Nice football , All weather</t>
+  </si>
+  <si>
+    <t>Gaming Mouse 1000hz 32000 dpi</t>
+  </si>
+  <si>
+    <t>/assets/images/football.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/mouse.jpg</t>
+  </si>
+  <si>
+    <t>Clean and clear anti dandruff</t>
+  </si>
+  <si>
+    <t>/assets/images/sham.jpg</t>
   </si>
 </sst>
 </file>
@@ -509,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +581,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -552,41 +609,45 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -595,25 +656,27 @@
         <v>50000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -622,25 +685,27 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -649,25 +714,27 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -676,25 +743,27 @@
         <v>2500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -703,18 +772,107 @@
         <v>15000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>250</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
